--- a/back/asset/excel/account.xlsx
+++ b/back/asset/excel/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12860"/>
+    <workbookView windowWidth="30240" windowHeight="12740"/>
   </bookViews>
   <sheets>
     <sheet name="患者" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>姓名</t>
   </si>
@@ -42,13 +42,13 @@
     <t>电话</t>
   </si>
   <si>
-    <t>张医师</t>
+    <t>张三</t>
   </si>
   <si>
     <t>男</t>
   </si>
   <si>
-    <t>李医师</t>
+    <t>李红</t>
   </si>
   <si>
     <t>女</t>
@@ -57,7 +57,13 @@
     <t>所属医院</t>
   </si>
   <si>
+    <t>张医师</t>
+  </si>
+  <si>
     <t>hospital1</t>
+  </si>
+  <si>
+    <t>李医师</t>
   </si>
   <si>
     <t>hospital2</t>
@@ -1208,7 +1214,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1297,7 +1303,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>123</v>
@@ -1309,12 +1315,12 @@
         <v>12345678901</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>123</v>
@@ -1326,7 +1332,7 @@
         <v>19082310001</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/back/asset/excel/account.xlsx
+++ b/back/asset/excel/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12740"/>
+    <workbookView windowWidth="30240" windowHeight="12740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="患者" sheetId="1" r:id="rId1"/>
@@ -28,30 +28,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>姓名</t>
   </si>
   <si>
-    <t>密码</t>
-  </si>
-  <si>
     <t>性别</t>
   </si>
   <si>
     <t>电话</t>
   </si>
   <si>
+    <t>家庭住址</t>
+  </si>
+  <si>
     <t>张三</t>
   </si>
   <si>
     <t>男</t>
   </si>
   <si>
+    <t>xxx社区12栋1301号</t>
+  </si>
+  <si>
     <t>李红</t>
   </si>
   <si>
     <t>女</t>
+  </si>
+  <si>
+    <t>xxx社区12栋1302号</t>
   </si>
   <si>
     <t>所属医院</t>
@@ -1213,13 +1219,14 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="12.9230769230769"/>
+    <col min="3" max="3" width="12.9230769230769"/>
+    <col min="4" max="4" width="19.0673076923077" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1240,28 +1247,28 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>123</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="C2">
         <v>12345671901</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>123</v>
-      </c>
-      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
         <v>19083310001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1273,18 +1280,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="A2:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="12.9230769230769"/>
+    <col min="3" max="3" width="12.9230769230769"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1295,44 +1302,35 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>12345678901</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>12345678901</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>123</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>19082310001</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
+      <c r="D3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/back/asset/excel/account.xlsx
+++ b/back/asset/excel/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12740" activeTab="1"/>
+    <workbookView windowWidth="30240" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="患者" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>姓名</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>家庭住址</t>
+  </si>
+  <si>
+    <t>年龄</t>
   </si>
   <si>
     <t>张三</t>
@@ -1217,19 +1220,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="12.9230769230769"/>
     <col min="4" max="4" width="19.0673076923077" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1242,33 +1245,42 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>12345671901</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>19083310001</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +1294,7 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -1302,35 +1314,35 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>12345678901</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>19082310001</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/back/asset/excel/account.xlsx
+++ b/back/asset/excel/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12960"/>
+    <workbookView windowWidth="30240" windowHeight="12860"/>
   </bookViews>
   <sheets>
     <sheet name="患者" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,15 @@
     <t>年龄</t>
   </si>
   <si>
+    <t>李红</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>xxx社区12栋1302号</t>
+  </si>
+  <si>
     <t>张三</t>
   </si>
   <si>
@@ -52,15 +61,6 @@
   </si>
   <si>
     <t>xxx社区12栋1301号</t>
-  </si>
-  <si>
-    <t>李红</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>xxx社区12栋1302号</t>
   </si>
   <si>
     <t>所属医院</t>
@@ -1223,7 +1223,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1257,13 +1257,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>12345671901</v>
+        <v>17364244311</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1274,13 +1274,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>19083310001</v>
+        <v>12345671901</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1295,7 +1295,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1322,10 +1322,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>12345678901</v>
+        <v>19083106293</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1336,7 +1336,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>19082310001</v>

--- a/back/asset/excel/account.xlsx
+++ b/back/asset/excel/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12860"/>
+    <workbookView windowWidth="28000" windowHeight="12740"/>
   </bookViews>
   <sheets>
     <sheet name="患者" sheetId="1" r:id="rId1"/>
@@ -1223,7 +1223,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1257,7 +1257,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>17364244311</v>
+        <v>19083106293</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1295,7 +1295,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1325,7 +1325,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>19083106293</v>
+        <v>17364244311</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
